--- a/bots/crawl_ch/output/electronics_2022-07-17.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-17.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -652,50 +652,48 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4488074</t>
+          <t>5920020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück</t>
+          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/basic-alkaline-batterien-lr6aa-12-stueck/p/5920020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>0.83/1ST</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -705,7 +703,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -715,58 +713,60 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
+          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5920020</t>
+          <t>4488074</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück</t>
+          <t>Varta Knopfzellen CR2032 2 Stück</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/basic-alkaline-batterien-lr6aa-12-stueck/p/5920020</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.83/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -786,17 +786,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -1810,24 +1810,24 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1835,25 +1835,23 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1863,7 +1861,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1878,53 +1876,55 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1944,39 +1944,39 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2457,131 +2457,131 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>6508223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>satrap Venti WS Standventilator</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6508223</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -2727,50 +2727,48 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.98/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2780,7 +2778,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2790,58 +2788,60 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6753555</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.98/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2861,34 +2861,34 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2932,60 +2932,58 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>6753555</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2995,7 +2993,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3010,39 +3008,45 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3050,123 +3054,119 @@
           <t>14.95</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3200,39 +3200,39 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3276,46 +3276,44 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>6848736</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3324,42 +3322,42 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3368,7 +3366,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3382,44 +3380,46 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6848736</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -3428,17 +3428,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:26</t>
+          <t>2022-07-17 20:57:34</t>
         </is>
       </c>
     </row>
